--- a/src/test/resources/WriteData.xlsx
+++ b/src/test/resources/WriteData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent>
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium Practice\com.hms.royalFreeHospital\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D85052A-2E84-4D97-92C3-8EFAC242DADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4D85052A-2E84-4D97-92C3-8EFAC242DADA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4654" uniqueCount="4654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="4693">
   <si>
     <t/>
   </si>
@@ -13987,6 +13987,123 @@
   </si>
   <si>
     <t>TY_PROJ_9898</t>
+  </si>
+  <si>
+    <t>TY_PROJ_014</t>
+  </si>
+  <si>
+    <t>TY_PROJ_015</t>
+  </si>
+  <si>
+    <t>TY_PROJ_016</t>
+  </si>
+  <si>
+    <t>TY_PROJ_018</t>
+  </si>
+  <si>
+    <t>TY_PROJ_021</t>
+  </si>
+  <si>
+    <t>TY_PROJ_023</t>
+  </si>
+  <si>
+    <t>TY_PROJ_024</t>
+  </si>
+  <si>
+    <t>TY_PROJ_025</t>
+  </si>
+  <si>
+    <t>TY_PROJ_027</t>
+  </si>
+  <si>
+    <t>TY_PROJ_032</t>
+  </si>
+  <si>
+    <t>TY_PROJ_033</t>
+  </si>
+  <si>
+    <t>TY_PROJ_034</t>
+  </si>
+  <si>
+    <t>TY_PROJ_035</t>
+  </si>
+  <si>
+    <t>TY_PROJ_036</t>
+  </si>
+  <si>
+    <t>TY_PROJ_037</t>
+  </si>
+  <si>
+    <t>TY_PROJ_038</t>
+  </si>
+  <si>
+    <t>TY_PROJ_039</t>
+  </si>
+  <si>
+    <t>TY_PROJ_041</t>
+  </si>
+  <si>
+    <t>TY_PROJ_042</t>
+  </si>
+  <si>
+    <t>TY_PROJ_043</t>
+  </si>
+  <si>
+    <t>TY_PROJ_045</t>
+  </si>
+  <si>
+    <t>TY_PROJ_046</t>
+  </si>
+  <si>
+    <t>TY_PROJ_047</t>
+  </si>
+  <si>
+    <t>TY_PROJ_050</t>
+  </si>
+  <si>
+    <t>TY_PROJ_051</t>
+  </si>
+  <si>
+    <t>TY_PROJ_052</t>
+  </si>
+  <si>
+    <t>TY_PROJ_053</t>
+  </si>
+  <si>
+    <t>TY_PROJ_054</t>
+  </si>
+  <si>
+    <t>TY_PROJ_055</t>
+  </si>
+  <si>
+    <t>TY_PROJ_057</t>
+  </si>
+  <si>
+    <t>TY_PROJ_058</t>
+  </si>
+  <si>
+    <t>TY_PROJ_059</t>
+  </si>
+  <si>
+    <t>TY_PROJ_061</t>
+  </si>
+  <si>
+    <t>TY_PROJ_062</t>
+  </si>
+  <si>
+    <t>TY_PROJ_063</t>
+  </si>
+  <si>
+    <t>TY_PROJ_064</t>
+  </si>
+  <si>
+    <t>TY_PROJ_1335871</t>
+  </si>
+  <si>
+    <t>TY_PROJ_065</t>
+  </si>
+  <si>
+    <t>TY_PROJ_066</t>
   </si>
 </sst>
 </file>
@@ -14021,16 +14138,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -14047,10 +14164,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14085,7 +14202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -14120,7 +14237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -14214,21 +14331,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -14245,7 +14362,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -14297,15 +14414,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4654"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -14315,192 +14432,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="39">
@@ -37584,6 +37701,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>